--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_国家作成処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_国家作成処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1152E2-9205-43E8-BD0F-454E523D44CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB3532-0A31-404D-B94D-A18649ECFF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -34,10 +34,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面項目!$A$1:$AV$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面表示時!$A$1:$AV$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$227</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$231</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="477">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2262,155 +2263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→上記の処理正常終了後、中心座標の地方に王都が自動生成される</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チホウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>オウト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→登録先はfields,locations（重複の場合スルー）,spots, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>locaitonsはワークテーブル必須</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→中心座標と辺を決定、重複が判断された場合x,y座標の上下左右で重複した場合登録しない</t>
-    <rPh sb="1" eb="3">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヘン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウゲ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①王国作成（国名、国王名決定、最大面積を決定） ex.縦×横 = 30×20</t>
-    <rPh sb="1" eb="3">
-      <t>オウコク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コクメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コクオウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヨコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>★概要</t>
     <rPh sb="1" eb="3">
       <t>ガイヨウ</t>
@@ -3238,6 +3090,160 @@
   <si>
     <t>asset</t>
   </si>
+  <si>
+    <t>①王国作成（国名、国王名決定）</t>
+    <rPh sb="1" eb="3">
+      <t>オウコク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コクメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コクオウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ドラッグアンドドロップで作成する王国範囲を選択</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オウコク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→登録先はfields,areas,spots,（重複の場合スルー）,spots, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locaitonsはワークテーブル必須</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>→上記の処理正常終了後、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心座標の地方に王都が自動生成される</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①－１.王都作成処理</t>
+    <rPh sb="4" eb="6">
+      <t>オウト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→王都となる領地は中心地</t>
+    <rPh sb="1" eb="3">
+      <t>オウト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>チュウシンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range(min(self.rect_start_x.get(), self.rect_stop_x.get())+abs(self.rect_start_x.get() - self.rect_stop_x.get()) * 2 / 5,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> max(self.rect_start_x.get(), self.rect_stop_x.get()) - abs(self.rect_start_x.get() - self.rect_stop_x.get()) * 2 / 5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3246,7 +3252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3349,6 +3355,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3768,7 +3782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4145,6 +4159,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10833,13 +10850,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10903,13 +10920,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10973,13 +10990,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11043,13 +11060,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11103,13 +11120,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11171,13 +11188,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>50725</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>157405</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11223,13 +11240,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17731,10 +17748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
-  <dimension ref="A1:AV214"/>
+  <dimension ref="A1:AV218"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL137" sqref="AL137"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ191" sqref="AJ191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22886,386 +22903,415 @@
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C117" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C118" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" t="s">
         <v>391</v>
-      </c>
-      <c r="C119" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C120" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C121" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C122" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C123" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C124" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C125" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C127" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q127" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C128" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="3:39" x14ac:dyDescent="0.45">
       <c r="C129" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="3:39" x14ac:dyDescent="0.45">
       <c r="C130" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL135" s="78" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AM135" s="77"/>
     </row>
     <row r="136" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL136" s="77" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM136" s="77"/>
     </row>
     <row r="137" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL137" s="77" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM137" s="77"/>
     </row>
     <row r="138" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL138" s="77" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AM138" s="77"/>
     </row>
     <row r="139" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL139" s="77" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AM139" s="77"/>
     </row>
     <row r="140" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL140" s="77" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AM140" s="77"/>
     </row>
     <row r="141" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL141" s="77" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AM141" s="77"/>
     </row>
     <row r="142" spans="3:39" x14ac:dyDescent="0.45">
       <c r="AL142" s="77" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM142" s="77"/>
     </row>
     <row r="163" spans="4:17" x14ac:dyDescent="0.45">
       <c r="D163" s="78" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="4:17" x14ac:dyDescent="0.45">
       <c r="D164" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E165" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="166" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E166" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E167" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="4:17" x14ac:dyDescent="0.45">
       <c r="F168" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H168" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q168" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="4:17" x14ac:dyDescent="0.45">
       <c r="H169" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="4:17" x14ac:dyDescent="0.45">
       <c r="H170" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="4:17" x14ac:dyDescent="0.45">
       <c r="H171" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="172" spans="4:17" x14ac:dyDescent="0.45">
       <c r="H172" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="173" spans="4:17" x14ac:dyDescent="0.45">
       <c r="H173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="4:17" x14ac:dyDescent="0.45">
       <c r="H174" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="4:17" x14ac:dyDescent="0.45">
       <c r="D175" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="4:17" x14ac:dyDescent="0.45">
       <c r="E176" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="177" spans="3:31" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E177" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="178" spans="3:31" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D178" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="3:31" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C180" s="79" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="181" spans="3:31" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D181" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="182" spans="3:31" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D182" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="183" spans="3:31" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D183" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="184" spans="3:31" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.45">
       <c r="E184" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="185" spans="3:31" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D185" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="186" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="D186" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E186" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E187" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="F188" s="126" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="H189" s="126" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D190" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="D187" t="s">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D191" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="188" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="E188" t="s">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="E192" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="E189" s="78" t="s">
+    <row r="193" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="E193" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="F189" s="77"/>
-      <c r="P189" t="s">
+      <c r="F193" s="77"/>
+      <c r="P193" t="s">
         <v>359</v>
       </c>
-      <c r="AB189" s="78" t="s">
+      <c r="AB193" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="AC189" s="77"/>
-      <c r="AD189" s="77"/>
-      <c r="AE189" s="77"/>
-    </row>
-    <row r="190" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="E190" s="77"/>
-      <c r="F190" s="77" t="s">
+      <c r="AC193" s="77"/>
+      <c r="AD193" s="77"/>
+      <c r="AE193" s="77"/>
+    </row>
+    <row r="194" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="E194" s="77"/>
+      <c r="F194" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="Q190" t="s">
+      <c r="Q194" t="s">
         <v>356</v>
       </c>
-      <c r="AB190" s="77"/>
-      <c r="AC190" s="77" t="s">
+      <c r="AB194" s="77"/>
+      <c r="AC194" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="AD190" s="77"/>
-      <c r="AE190" s="77"/>
-    </row>
-    <row r="191" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="Q191" t="s">
+      <c r="AD194" s="77"/>
+      <c r="AE194" s="77"/>
+    </row>
+    <row r="195" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="Q195" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="192" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="Q192" t="s">
+    <row r="196" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="Q196" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D193" s="80" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D194" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D195" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E196" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D197" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D197" s="80" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="198" spans="4:44" x14ac:dyDescent="0.45">
       <c r="D198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D199" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="E200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D201" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D202" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D199" t="s">
+    <row r="203" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D203" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D200" t="s">
+      <c r="AH203" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR203" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="204" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D204" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D201" t="s">
+    <row r="205" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D205" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D202" t="s">
+    <row r="206" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D206" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D203" t="s">
+    <row r="207" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D207" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D204" t="s">
+    <row r="208" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D208" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="212" spans="34:34" x14ac:dyDescent="0.45">
-      <c r="AH212" t="s">
+    <row r="216" spans="34:34" x14ac:dyDescent="0.45">
+      <c r="AH216" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="213" spans="34:34" x14ac:dyDescent="0.45">
-      <c r="AH213" t="s">
+    <row r="217" spans="34:34" x14ac:dyDescent="0.45">
+      <c r="AH217" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="214" spans="34:34" x14ac:dyDescent="0.45">
-      <c r="AH214" t="s">
+    <row r="218" spans="34:34" x14ac:dyDescent="0.45">
+      <c r="AH218" t="s">
         <v>343</v>
       </c>
     </row>
@@ -23294,8 +23340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
   <dimension ref="A1:AK596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="N450" sqref="N450"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="F451" sqref="F451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23719,7 +23765,7 @@
         <v>260</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>241</v>
@@ -23731,7 +23777,7 @@
         <v>261</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K14" s="47" t="s">
         <v>243</v>
@@ -23740,25 +23786,25 @@
         <v>244</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O14" s="47" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R14" s="47" t="s">
         <v>246</v>
       </c>
       <c r="S14" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T14" s="47" t="s">
         <v>247</v>
@@ -23770,16 +23816,16 @@
         <v>248</v>
       </c>
       <c r="W14" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="X14" s="47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Y14" s="47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Z14" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AA14" s="47" t="s">
         <v>264</v>
@@ -23832,16 +23878,16 @@
         <v>278</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O15" s="47" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q15" s="47" t="s">
         <v>263</v>
@@ -23850,7 +23896,7 @@
         <v>279</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T15" s="47" t="s">
         <v>280</v>
@@ -23862,13 +23908,13 @@
         <v>248</v>
       </c>
       <c r="W15" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="X15" s="47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Y15" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Z15" s="47" t="s">
         <v>128</v>
@@ -24006,25 +24052,25 @@
         <v>290</v>
       </c>
       <c r="H19" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="L19" s="47" t="s">
         <v>454</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="J19" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="L19" s="47" t="s">
-        <v>458</v>
       </c>
       <c r="M19" s="47" t="s">
         <v>243</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O19" s="47" t="s">
         <v>246</v>
@@ -24039,16 +24085,16 @@
         <v>248</v>
       </c>
       <c r="S19" s="47" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T19" s="47" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U19" s="47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="V19" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="W19" s="47" t="s">
         <v>264</v>
@@ -24077,28 +24123,28 @@
         <v>272</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>302</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K20" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20" s="47" t="s">
         <v>426</v>
-      </c>
-      <c r="L20" s="47" t="s">
-        <v>430</v>
       </c>
       <c r="M20" s="47" t="s">
         <v>277</v>
@@ -24119,13 +24165,13 @@
         <v>248</v>
       </c>
       <c r="S20" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="T20" s="47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U20" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="V20" s="47" t="s">
         <v>128</v>
@@ -24237,7 +24283,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F22" t="s">
         <v>304</v>
@@ -24317,7 +24363,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F23" t="s">
         <v>304</v>
@@ -24397,7 +24443,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F24" t="s">
         <v>304</v>
@@ -24465,7 +24511,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="36" x14ac:dyDescent="0.45">
@@ -24482,40 +24528,40 @@
         <v>256</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K27" s="47" t="s">
         <v>245</v>
       </c>
       <c r="L27" s="47" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M27" s="47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N27" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O27" s="47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P27" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="47" t="s">
         <v>264</v>
@@ -24544,19 +24590,19 @@
         <v>268</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J28" s="47" t="s">
         <v>272</v>
@@ -24568,13 +24614,13 @@
         <v>263</v>
       </c>
       <c r="M28" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N28" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="O28" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P28" s="47" t="s">
         <v>128</v>
@@ -25586,18 +25632,18 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A47" s="47" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D47" s="47" t="s">
         <v>283</v>
@@ -25612,7 +25658,7 @@
         <v>285</v>
       </c>
       <c r="H47" s="47" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I47" s="47" t="s">
         <v>281</v>
@@ -25621,16 +25667,16 @@
         <v>263</v>
       </c>
       <c r="K47" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L47" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M47" s="47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N47" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O47" s="47" t="s">
         <v>264</v>
@@ -25647,7 +25693,7 @@
     </row>
     <row r="48" spans="1:20" ht="36" x14ac:dyDescent="0.45">
       <c r="A48" s="47" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>95</v>
@@ -25668,7 +25714,7 @@
         <v>109</v>
       </c>
       <c r="H48" s="47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I48" s="47" t="s">
         <v>281</v>
@@ -25677,13 +25723,13 @@
         <v>263</v>
       </c>
       <c r="K48" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L48" s="47" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M48" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N48" s="47" t="s">
         <v>128</v>
@@ -48506,41 +48552,41 @@
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P450" s="76"/>
       <c r="R450" s="76"/>
     </row>
     <row r="451" spans="1:18" ht="36" x14ac:dyDescent="0.45">
       <c r="A451" s="47" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B451" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="C451" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="D451" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="E451" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="F451" s="47" t="s">
         <v>462</v>
-      </c>
-      <c r="C451" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="D451" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="E451" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="F451" s="47" t="s">
-        <v>466</v>
       </c>
       <c r="G451" s="47" t="s">
         <v>245</v>
       </c>
       <c r="H451" s="47" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I451" s="47" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J451" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K451" s="47" t="s">
         <v>264</v>
@@ -48559,31 +48605,31 @@
     </row>
     <row r="452" spans="1:18" ht="36" x14ac:dyDescent="0.45">
       <c r="A452" s="47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B452" s="47" t="s">
         <v>272</v>
       </c>
       <c r="C452" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="D452" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="E452" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="F452" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="G452" s="47" t="s">
         <v>468</v>
-      </c>
-      <c r="D452" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="E452" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="F452" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="G452" s="47" t="s">
-        <v>472</v>
       </c>
       <c r="H452" s="47" t="s">
         <v>113</v>
       </c>
       <c r="I452" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J452" s="47" t="s">
         <v>128</v>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_国家作成処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_国家作成処理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB3532-0A31-404D-B94D-A18649ECFF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644DFBD-7562-400F-9870-2380452ACD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -34,11 +34,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">画面項目!$A$1:$AV$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">画面表示時!$A$1:$AV$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改版履歴!$A$1:$AV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$231</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要設計!$A$1:$AV$256</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="589">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3244,6 +3243,526 @@
     <t xml:space="preserve"> max(self.rect_start_x.get(), self.rect_stop_x.get()) - abs(self.rect_start_x.get() - self.rect_stop_x.get()) * 2 / 5)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>④高低差データ作成</t>
+    <rPh sb="1" eb="4">
+      <t>コウテイサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ランダムで作成したareaから最高到達点を設定(別テーブルmountains）</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>class1_id</t>
+  </si>
+  <si>
+    <t>class2_id</t>
+  </si>
+  <si>
+    <t>class3_id</t>
+  </si>
+  <si>
+    <t>guild_rank</t>
+  </si>
+  <si>
+    <t>guild_point</t>
+  </si>
+  <si>
+    <t>title_id</t>
+  </si>
+  <si>
+    <t>charisma</t>
+  </si>
+  <si>
+    <t>karma</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>mag</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>talent1_id</t>
+  </si>
+  <si>
+    <t>talent2_id</t>
+  </si>
+  <si>
+    <t>talent3_id</t>
+  </si>
+  <si>
+    <t>is_leader</t>
+  </si>
+  <si>
+    <t>is_dangeon</t>
+  </si>
+  <si>
+    <t>is_master</t>
+  </si>
+  <si>
+    <t>is_retire</t>
+  </si>
+  <si>
+    <t>is_partner</t>
+  </si>
+  <si>
+    <t>partner_id</t>
+  </si>
+  <si>
+    <t>delete_id</t>
+  </si>
+  <si>
+    <t>キャラクターID</t>
+  </si>
+  <si>
+    <t>遺伝子ID</t>
+  </si>
+  <si>
+    <t>種族ID</t>
+  </si>
+  <si>
+    <t>拠点ID</t>
+  </si>
+  <si>
+    <t>X座標</t>
+  </si>
+  <si>
+    <t>Y座標</t>
+  </si>
+  <si>
+    <t>x座標</t>
+  </si>
+  <si>
+    <t>y座標</t>
+  </si>
+  <si>
+    <t>キャラクター名</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>年齢</t>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>出身地</t>
+  </si>
+  <si>
+    <t>所持金</t>
+  </si>
+  <si>
+    <t>クラス１ID</t>
+  </si>
+  <si>
+    <t>クラス２ID</t>
+  </si>
+  <si>
+    <t>クラス３ID</t>
+  </si>
+  <si>
+    <t>称号コード</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>カリスマ値</t>
+  </si>
+  <si>
+    <t>カルマ値</t>
+  </si>
+  <si>
+    <t>幸運値</t>
+  </si>
+  <si>
+    <t>知能</t>
+  </si>
+  <si>
+    <t>スタミナ</t>
+  </si>
+  <si>
+    <t>攻撃</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>魔防</t>
+  </si>
+  <si>
+    <t>素早さ</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>タレント１ID</t>
+  </si>
+  <si>
+    <t>タレント２ID</t>
+  </si>
+  <si>
+    <t>タレント３ID</t>
+  </si>
+  <si>
+    <t>リーダーフラグ</t>
+  </si>
+  <si>
+    <t>パーティID１</t>
+  </si>
+  <si>
+    <t>パーティID２</t>
+  </si>
+  <si>
+    <t>パーティID３</t>
+  </si>
+  <si>
+    <t>ダンジョンフラグ</t>
+  </si>
+  <si>
+    <t>ダンジョンID</t>
+  </si>
+  <si>
+    <t>マスターフラグ</t>
+  </si>
+  <si>
+    <t>マスターID</t>
+  </si>
+  <si>
+    <t>ユーザーフラグ</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>リタイヤフラグ</t>
+  </si>
+  <si>
+    <t>パートナーフラグ</t>
+  </si>
+  <si>
+    <t>パートナーID</t>
+  </si>
+  <si>
+    <t>削除ID</t>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国王決定処理→ドロップダウンで選択</t>
+    <rPh sb="0" eb="2">
+      <t>コクオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダム生成</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→Status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→固定</t>
+    <rPh sb="1" eb="3">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会問題的</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>population, average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【範囲】*2</t>
+    <rPh sb="1" eb="3">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【比較対象】*1</t>
+    <rPh sb="1" eb="3">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→固定値はないと思われる（しいて言えば人口）</t>
+    <rPh sb="1" eb="4">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ランクが先に決定した場合、指数に大して【比較対象】を乗算した値が暫定の数値となる</t>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウサン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.下限いっぱい→上限も決める必要があるか？</t>
+    <rPh sb="2" eb="4">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この辺りはランダムに作用しない</t>
+    <rPh sb="2" eb="3">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→合計値はガチャ要素のみを期待？</t>
+    <rPh sb="1" eb="4">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定基準値の設定</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キジュンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F:12500</t>
+  </si>
+  <si>
+    <t>→ランダムランクは基準値によるものとする</t>
+    <rPh sb="9" eb="12">
+      <t>キジュンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D:150000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E:62500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:450000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B:1000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A:2500000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S:10000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS:50000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSS：500000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3252,7 +3771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3365,6 +3884,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3782,7 +4309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4026,11 +4553,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4062,45 +4631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4125,24 +4655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4161,7 +4673,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13857,6 +14396,179 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8E5D2B-FE6C-49A4-B635-2AD879DD6727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8747760" y="54246780"/>
+          <a:ext cx="3771900" cy="2644140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ライキン指標</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戦力→総経験値</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>内訳：建築５、技術３、兵数３→ガチャ要素</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→偏りあり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF53CEC-F44C-4174-94F7-B4FDC46EC487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="52882800"/>
+          <a:ext cx="3246120" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+            <a:alpha val="57000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14421,20 +15133,20 @@
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
-      <c r="AX3" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="82" t="s">
+      <c r="AX3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="82"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
@@ -14485,20 +15197,20 @@
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
-      <c r="AX4" s="81" t="s">
+      <c r="AX4" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="82" t="s">
+      <c r="AY4" s="82"/>
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="82"/>
-      <c r="BG4" s="82"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -15286,132 +15998,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -16116,139 +16828,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31C36D0-D73B-44D4-983E-B5C498A1AC1E}">
   <dimension ref="A1:AV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -16855,852 +17567,845 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="92" t="str">
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="106" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92" t="str">
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="98" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="104"/>
-      <c r="BC2" s="105"/>
-      <c r="BD2" s="105"/>
-      <c r="BE2" s="105"/>
-      <c r="BF2" s="105"/>
-      <c r="BG2" s="105"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="85"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="AX3" s="104"/>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="104"/>
-      <c r="BB3" s="104"/>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="105"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="85"/>
+      <c r="BE3" s="85"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="85"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A4" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="100" t="s">
+      <c r="A4" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="93" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="93" t="s">
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="95"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="91"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="92"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A5" s="83">
+      <c r="A5" s="97">
         <v>43933</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="103" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="96" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="98"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="88"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="98"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="88"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="98"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="88"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="98"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="88"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="97"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="98"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="88"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="98"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="88"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="97"/>
-      <c r="AT11" s="97"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="98"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="86"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="88"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="98"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="86"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="88"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="98"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="88"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="97"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="97"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="98"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="88"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="98"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="86"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="88"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="98"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="86"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -17717,28 +18422,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17748,144 +18460,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
-  <dimension ref="A1:AV218"/>
+  <dimension ref="A1:AV250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ191" sqref="AJ191"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P250" sqref="P250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="17" max="17" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
@@ -23167,12 +23880,12 @@
       </c>
     </row>
     <row r="188" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="F188" s="126" t="s">
+      <c r="F188" s="81" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="H189" s="126" t="s">
+      <c r="H189" s="81" t="s">
         <v>476</v>
       </c>
     </row>
@@ -23300,19 +24013,365 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="34:34" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="D209" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="210" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="E210" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="216" spans="3:34" x14ac:dyDescent="0.45">
       <c r="AH216" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="217" spans="34:34" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:34" x14ac:dyDescent="0.45">
       <c r="AH217" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="218" spans="34:34" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:34" x14ac:dyDescent="0.45">
       <c r="AH218" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="C219" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="220" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="Q220" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="221" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="C221" t="s">
+        <v>277</v>
+      </c>
+      <c r="H221" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="222" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="C222" t="s">
+        <v>278</v>
+      </c>
+      <c r="H222" t="s">
+        <v>557</v>
+      </c>
+      <c r="P222" t="s">
+        <v>571</v>
+      </c>
+      <c r="W222" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="223" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="C223" t="s">
+        <v>419</v>
+      </c>
+      <c r="H223" t="s">
+        <v>558</v>
+      </c>
+      <c r="L223" t="s">
+        <v>560</v>
+      </c>
+      <c r="P223" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="224" spans="3:34" x14ac:dyDescent="0.45">
+      <c r="C224" t="s">
+        <v>420</v>
+      </c>
+      <c r="H224" t="s">
+        <v>558</v>
+      </c>
+      <c r="L224" t="s">
+        <v>560</v>
+      </c>
+      <c r="P224" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="225" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C225" t="s">
+        <v>421</v>
+      </c>
+      <c r="H225" t="s">
+        <v>558</v>
+      </c>
+      <c r="L225" t="s">
+        <v>560</v>
+      </c>
+      <c r="P225" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="226" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C226" t="s">
+        <v>422</v>
+      </c>
+      <c r="H226" t="s">
+        <v>558</v>
+      </c>
+      <c r="L226" t="s">
+        <v>560</v>
+      </c>
+      <c r="P226" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="227" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C227" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="D227" s="77"/>
+      <c r="E227" s="77"/>
+      <c r="F227" s="77"/>
+      <c r="G227" s="77"/>
+      <c r="H227" s="77" t="s">
+        <v>557</v>
+      </c>
+      <c r="I227" s="77"/>
+      <c r="J227" s="77"/>
+      <c r="K227" s="77"/>
+      <c r="L227" s="77" t="s">
+        <v>559</v>
+      </c>
+      <c r="P227" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="228" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C228" t="s">
+        <v>279</v>
+      </c>
+      <c r="H228" t="s">
+        <v>557</v>
+      </c>
+      <c r="L228" t="s">
+        <v>94</v>
+      </c>
+      <c r="M228" t="s">
+        <v>562</v>
+      </c>
+      <c r="P228" t="s">
+        <v>566</v>
+      </c>
+      <c r="W228" s="127" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="229" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C229" t="s">
+        <v>423</v>
+      </c>
+      <c r="H229" t="s">
+        <v>557</v>
+      </c>
+      <c r="L229" t="s">
+        <v>94</v>
+      </c>
+      <c r="P229" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="230" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C230" t="s">
+        <v>281</v>
+      </c>
+      <c r="H230" t="s">
+        <v>557</v>
+      </c>
+      <c r="L230" t="s">
+        <v>94</v>
+      </c>
+      <c r="P230" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="231" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C231" s="130" t="s">
+        <v>280</v>
+      </c>
+      <c r="D231" s="130"/>
+      <c r="E231" s="130"/>
+      <c r="F231" s="130"/>
+      <c r="G231" s="130"/>
+      <c r="H231" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="I231" s="130"/>
+      <c r="J231" s="130"/>
+      <c r="K231" s="130"/>
+      <c r="L231" s="130" t="s">
+        <v>561</v>
+      </c>
+      <c r="M231" s="130"/>
+      <c r="N231" s="130"/>
+      <c r="O231" s="130"/>
+      <c r="P231" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="232" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C232" s="130" t="s">
+        <v>248</v>
+      </c>
+      <c r="D232" s="130"/>
+      <c r="E232" s="130"/>
+      <c r="F232" s="130"/>
+      <c r="G232" s="130"/>
+      <c r="H232" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="I232" s="130"/>
+      <c r="J232" s="130"/>
+      <c r="K232" s="130"/>
+      <c r="L232" s="130"/>
+      <c r="M232" s="130"/>
+      <c r="N232" s="130"/>
+      <c r="O232" s="130"/>
+      <c r="AB232" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="233" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C233" s="130" t="s">
+        <v>424</v>
+      </c>
+      <c r="D233" s="130"/>
+      <c r="E233" s="130"/>
+      <c r="F233" s="130"/>
+      <c r="G233" s="130"/>
+      <c r="H233" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="I233" s="130"/>
+      <c r="J233" s="130"/>
+      <c r="K233" s="130"/>
+      <c r="L233" s="130"/>
+      <c r="M233" s="130"/>
+      <c r="N233" s="130"/>
+      <c r="O233" s="130"/>
+      <c r="AB233" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="234" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C234" s="130" t="s">
+        <v>425</v>
+      </c>
+      <c r="D234" s="130"/>
+      <c r="E234" s="130"/>
+      <c r="F234" s="130"/>
+      <c r="G234" s="130"/>
+      <c r="H234" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="I234" s="130"/>
+      <c r="J234" s="130"/>
+      <c r="K234" s="130"/>
+      <c r="L234" s="130" t="s">
+        <v>563</v>
+      </c>
+      <c r="M234" s="130"/>
+      <c r="N234" s="130"/>
+      <c r="O234" s="130"/>
+    </row>
+    <row r="235" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C235" s="130" t="s">
+        <v>426</v>
+      </c>
+      <c r="D235" s="130"/>
+      <c r="E235" s="130"/>
+      <c r="F235" s="130"/>
+      <c r="G235" s="130"/>
+      <c r="H235" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="I235" s="130"/>
+      <c r="J235" s="130"/>
+      <c r="K235" s="130"/>
+      <c r="L235" s="130" t="s">
+        <v>563</v>
+      </c>
+      <c r="M235" s="130"/>
+      <c r="N235" s="130"/>
+      <c r="O235" s="130"/>
+      <c r="P235" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="237" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C237" s="128" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="238" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C238" s="129" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="240" spans="3:28" x14ac:dyDescent="0.45">
+      <c r="C240" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C242" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C243" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C244" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C245" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C246" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C247" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C248" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C249" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C250" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -23338,10 +24397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53AE404-213A-4DBB-8676-F1848072465E}">
-  <dimension ref="A1:AK596"/>
+  <dimension ref="A1:BG600"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="F451" sqref="F451"/>
+    <sheetView topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="B598" sqref="B598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -55101,7 +56160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>141</v>
       </c>
@@ -55146,7 +56205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>142</v>
       </c>
@@ -55191,7 +56250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>143</v>
       </c>
@@ -55236,7 +56295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>144</v>
       </c>
@@ -55279,6 +56338,372 @@
       </c>
       <c r="N596" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:59" x14ac:dyDescent="0.45">
+      <c r="A598" t="s">
+        <v>553</v>
+      </c>
+      <c r="B598" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="599" spans="1:59" ht="54" x14ac:dyDescent="0.45">
+      <c r="A599" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B599" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="C599" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="D599" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="E599" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="F599" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G599" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="H599" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="I599" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="J599" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="K599" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="L599" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="M599" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="N599" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="O599" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="P599" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q599" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="R599" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="S599" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="T599" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="U599" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="V599" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="W599" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="X599" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y599" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z599" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA599" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB599" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC599" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD599" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE599" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF599" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="AG599" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH599" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI599" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ599" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK599" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="AL599" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM599" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="AN599" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO599" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP599" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ599" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR599" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="AS599" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="AT599" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="AU599" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="AV599" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW599" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX599" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="AY599" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="AZ599" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="BA599" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="BB599" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="BC599" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="BD599" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE599" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF599" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="BG599" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="600" spans="1:59" ht="36" x14ac:dyDescent="0.45">
+      <c r="A600" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B600" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C600" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D600" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E600" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F600" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G600" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H600" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I600" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="J600" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="K600" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="L600" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="M600" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="N600" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="O600" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="P600" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q600" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="R600" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="S600" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="T600" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="U600" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="V600" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="W600" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="X600" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y600" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z600" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA600" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB600" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC600" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD600" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE600" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF600" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG600" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH600" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI600" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ600" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK600" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL600" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM600" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN600" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="AO600" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP600" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ600" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR600" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="AS600" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT600" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="AU600" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV600" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW600" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX600" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="AY600" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ600" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="BA600" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB600" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BC600" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="BD600" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE600" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF600" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG600" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -55298,132 +56723,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
@@ -55431,112 +56856,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="107" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="108"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="109"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="110"/>
     </row>
     <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="107" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108"/>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
+      <c r="AM6" s="109"/>
+      <c r="AN6" s="109"/>
+      <c r="AO6" s="109"/>
+      <c r="AP6" s="109"/>
+      <c r="AQ6" s="109"/>
+      <c r="AR6" s="109"/>
+      <c r="AS6" s="109"/>
+      <c r="AT6" s="109"/>
+      <c r="AU6" s="109"/>
+      <c r="AV6" s="110"/>
     </row>
     <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
@@ -55545,490 +56970,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="110" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="106" t="s">
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="106"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
     </row>
     <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="107" t="s">
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="108"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="108"/>
-      <c r="AM10" s="108"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="108"/>
-      <c r="AP10" s="108"/>
-      <c r="AQ10" s="108"/>
-      <c r="AR10" s="108"/>
-      <c r="AS10" s="108"/>
-      <c r="AT10" s="108"/>
-      <c r="AU10" s="108"/>
-      <c r="AV10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="109"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="109"/>
+      <c r="AO10" s="109"/>
+      <c r="AP10" s="109"/>
+      <c r="AQ10" s="109"/>
+      <c r="AR10" s="109"/>
+      <c r="AS10" s="109"/>
+      <c r="AT10" s="109"/>
+      <c r="AU10" s="109"/>
+      <c r="AV10" s="110"/>
     </row>
     <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="107" t="s">
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="108"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="108"/>
-      <c r="AM11" s="108"/>
-      <c r="AN11" s="108"/>
-      <c r="AO11" s="108"/>
-      <c r="AP11" s="108"/>
-      <c r="AQ11" s="108"/>
-      <c r="AR11" s="108"/>
-      <c r="AS11" s="108"/>
-      <c r="AT11" s="108"/>
-      <c r="AU11" s="108"/>
-      <c r="AV11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
+      <c r="AH11" s="109"/>
+      <c r="AI11" s="109"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="109"/>
+      <c r="AL11" s="109"/>
+      <c r="AM11" s="109"/>
+      <c r="AN11" s="109"/>
+      <c r="AO11" s="109"/>
+      <c r="AP11" s="109"/>
+      <c r="AQ11" s="109"/>
+      <c r="AR11" s="109"/>
+      <c r="AS11" s="109"/>
+      <c r="AT11" s="109"/>
+      <c r="AU11" s="109"/>
+      <c r="AV11" s="110"/>
     </row>
     <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="107" t="s">
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="108"/>
-      <c r="AM12" s="108"/>
-      <c r="AN12" s="108"/>
-      <c r="AO12" s="108"/>
-      <c r="AP12" s="108"/>
-      <c r="AQ12" s="108"/>
-      <c r="AR12" s="108"/>
-      <c r="AS12" s="108"/>
-      <c r="AT12" s="108"/>
-      <c r="AU12" s="108"/>
-      <c r="AV12" s="109"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="109"/>
+      <c r="AI12" s="109"/>
+      <c r="AJ12" s="109"/>
+      <c r="AK12" s="109"/>
+      <c r="AL12" s="109"/>
+      <c r="AM12" s="109"/>
+      <c r="AN12" s="109"/>
+      <c r="AO12" s="109"/>
+      <c r="AP12" s="109"/>
+      <c r="AQ12" s="109"/>
+      <c r="AR12" s="109"/>
+      <c r="AS12" s="109"/>
+      <c r="AT12" s="109"/>
+      <c r="AU12" s="109"/>
+      <c r="AV12" s="110"/>
     </row>
     <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="107" t="s">
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="108"/>
-      <c r="AM13" s="108"/>
-      <c r="AN13" s="108"/>
-      <c r="AO13" s="108"/>
-      <c r="AP13" s="108"/>
-      <c r="AQ13" s="108"/>
-      <c r="AR13" s="108"/>
-      <c r="AS13" s="108"/>
-      <c r="AT13" s="108"/>
-      <c r="AU13" s="108"/>
-      <c r="AV13" s="109"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="109"/>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="109"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="109"/>
+      <c r="AO13" s="109"/>
+      <c r="AP13" s="109"/>
+      <c r="AQ13" s="109"/>
+      <c r="AR13" s="109"/>
+      <c r="AS13" s="109"/>
+      <c r="AT13" s="109"/>
+      <c r="AU13" s="109"/>
+      <c r="AV13" s="110"/>
     </row>
     <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="107" t="s">
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="108"/>
-      <c r="AJ14" s="108"/>
-      <c r="AK14" s="108"/>
-      <c r="AL14" s="108"/>
-      <c r="AM14" s="108"/>
-      <c r="AN14" s="108"/>
-      <c r="AO14" s="108"/>
-      <c r="AP14" s="108"/>
-      <c r="AQ14" s="108"/>
-      <c r="AR14" s="108"/>
-      <c r="AS14" s="108"/>
-      <c r="AT14" s="108"/>
-      <c r="AU14" s="108"/>
-      <c r="AV14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="109"/>
+      <c r="AI14" s="109"/>
+      <c r="AJ14" s="109"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="109"/>
+      <c r="AM14" s="109"/>
+      <c r="AN14" s="109"/>
+      <c r="AO14" s="109"/>
+      <c r="AP14" s="109"/>
+      <c r="AQ14" s="109"/>
+      <c r="AR14" s="109"/>
+      <c r="AS14" s="109"/>
+      <c r="AT14" s="109"/>
+      <c r="AU14" s="109"/>
+      <c r="AV14" s="110"/>
     </row>
     <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="108"/>
-      <c r="AJ15" s="108"/>
-      <c r="AK15" s="108"/>
-      <c r="AL15" s="108"/>
-      <c r="AM15" s="108"/>
-      <c r="AN15" s="108"/>
-      <c r="AO15" s="108"/>
-      <c r="AP15" s="108"/>
-      <c r="AQ15" s="108"/>
-      <c r="AR15" s="108"/>
-      <c r="AS15" s="108"/>
-      <c r="AT15" s="108"/>
-      <c r="AU15" s="108"/>
-      <c r="AV15" s="109"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="109"/>
+      <c r="AG15" s="109"/>
+      <c r="AH15" s="109"/>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="109"/>
+      <c r="AM15" s="109"/>
+      <c r="AN15" s="109"/>
+      <c r="AO15" s="109"/>
+      <c r="AP15" s="109"/>
+      <c r="AQ15" s="109"/>
+      <c r="AR15" s="109"/>
+      <c r="AS15" s="109"/>
+      <c r="AT15" s="109"/>
+      <c r="AU15" s="109"/>
+      <c r="AV15" s="110"/>
     </row>
     <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="108"/>
-      <c r="AJ16" s="108"/>
-      <c r="AK16" s="108"/>
-      <c r="AL16" s="108"/>
-      <c r="AM16" s="108"/>
-      <c r="AN16" s="108"/>
-      <c r="AO16" s="108"/>
-      <c r="AP16" s="108"/>
-      <c r="AQ16" s="108"/>
-      <c r="AR16" s="108"/>
-      <c r="AS16" s="108"/>
-      <c r="AT16" s="108"/>
-      <c r="AU16" s="108"/>
-      <c r="AV16" s="109"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="109"/>
+      <c r="AJ16" s="109"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="109"/>
+      <c r="AN16" s="109"/>
+      <c r="AO16" s="109"/>
+      <c r="AP16" s="109"/>
+      <c r="AQ16" s="109"/>
+      <c r="AR16" s="109"/>
+      <c r="AS16" s="109"/>
+      <c r="AT16" s="109"/>
+      <c r="AU16" s="109"/>
+      <c r="AV16" s="110"/>
     </row>
     <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="108"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="108"/>
-      <c r="AO17" s="108"/>
-      <c r="AP17" s="108"/>
-      <c r="AQ17" s="108"/>
-      <c r="AR17" s="108"/>
-      <c r="AS17" s="108"/>
-      <c r="AT17" s="108"/>
-      <c r="AU17" s="108"/>
-      <c r="AV17" s="109"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="109"/>
+      <c r="AH17" s="109"/>
+      <c r="AI17" s="109"/>
+      <c r="AJ17" s="109"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="109"/>
+      <c r="AM17" s="109"/>
+      <c r="AN17" s="109"/>
+      <c r="AO17" s="109"/>
+      <c r="AP17" s="109"/>
+      <c r="AQ17" s="109"/>
+      <c r="AR17" s="109"/>
+      <c r="AS17" s="109"/>
+      <c r="AT17" s="109"/>
+      <c r="AU17" s="109"/>
+      <c r="AV17" s="110"/>
     </row>
     <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
@@ -56037,217 +57462,251 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="107" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="108"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="108"/>
-      <c r="AJ20" s="108"/>
-      <c r="AK20" s="108"/>
-      <c r="AL20" s="108"/>
-      <c r="AM20" s="108"/>
-      <c r="AN20" s="108"/>
-      <c r="AO20" s="108"/>
-      <c r="AP20" s="108"/>
-      <c r="AQ20" s="108"/>
-      <c r="AR20" s="108"/>
-      <c r="AS20" s="108"/>
-      <c r="AT20" s="108"/>
-      <c r="AU20" s="108"/>
-      <c r="AV20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="109"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="109"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="109"/>
+      <c r="AM20" s="109"/>
+      <c r="AN20" s="109"/>
+      <c r="AO20" s="109"/>
+      <c r="AP20" s="109"/>
+      <c r="AQ20" s="109"/>
+      <c r="AR20" s="109"/>
+      <c r="AS20" s="109"/>
+      <c r="AT20" s="109"/>
+      <c r="AU20" s="109"/>
+      <c r="AV20" s="110"/>
     </row>
     <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
-      <c r="U21" s="108"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="107" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="108"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="108"/>
-      <c r="AJ21" s="108"/>
-      <c r="AK21" s="108"/>
-      <c r="AL21" s="108"/>
-      <c r="AM21" s="108"/>
-      <c r="AN21" s="108"/>
-      <c r="AO21" s="108"/>
-      <c r="AP21" s="108"/>
-      <c r="AQ21" s="108"/>
-      <c r="AR21" s="108"/>
-      <c r="AS21" s="108"/>
-      <c r="AT21" s="108"/>
-      <c r="AU21" s="108"/>
-      <c r="AV21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="109"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="109"/>
+      <c r="AH21" s="109"/>
+      <c r="AI21" s="109"/>
+      <c r="AJ21" s="109"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="109"/>
+      <c r="AM21" s="109"/>
+      <c r="AN21" s="109"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="109"/>
+      <c r="AQ21" s="109"/>
+      <c r="AR21" s="109"/>
+      <c r="AS21" s="109"/>
+      <c r="AT21" s="109"/>
+      <c r="AU21" s="109"/>
+      <c r="AV21" s="110"/>
     </row>
     <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="108"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="108"/>
-      <c r="AL22" s="108"/>
-      <c r="AM22" s="108"/>
-      <c r="AN22" s="108"/>
-      <c r="AO22" s="108"/>
-      <c r="AP22" s="108"/>
-      <c r="AQ22" s="108"/>
-      <c r="AR22" s="108"/>
-      <c r="AS22" s="108"/>
-      <c r="AT22" s="108"/>
-      <c r="AU22" s="108"/>
-      <c r="AV22" s="109"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="109"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="109"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="109"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="109"/>
+      <c r="AM22" s="109"/>
+      <c r="AN22" s="109"/>
+      <c r="AO22" s="109"/>
+      <c r="AP22" s="109"/>
+      <c r="AQ22" s="109"/>
+      <c r="AR22" s="109"/>
+      <c r="AS22" s="109"/>
+      <c r="AT22" s="109"/>
+      <c r="AU22" s="109"/>
+      <c r="AV22" s="110"/>
     </row>
     <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="108"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="108"/>
-      <c r="AD23" s="108"/>
-      <c r="AE23" s="108"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="108"/>
-      <c r="AJ23" s="108"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="108"/>
-      <c r="AM23" s="108"/>
-      <c r="AN23" s="108"/>
-      <c r="AO23" s="108"/>
-      <c r="AP23" s="108"/>
-      <c r="AQ23" s="108"/>
-      <c r="AR23" s="108"/>
-      <c r="AS23" s="108"/>
-      <c r="AT23" s="108"/>
-      <c r="AU23" s="108"/>
-      <c r="AV23" s="109"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="108"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="109"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="109"/>
+      <c r="AH23" s="109"/>
+      <c r="AI23" s="109"/>
+      <c r="AJ23" s="109"/>
+      <c r="AK23" s="109"/>
+      <c r="AL23" s="109"/>
+      <c r="AM23" s="109"/>
+      <c r="AN23" s="109"/>
+      <c r="AO23" s="109"/>
+      <c r="AP23" s="109"/>
+      <c r="AQ23" s="109"/>
+      <c r="AR23" s="109"/>
+      <c r="AS23" s="109"/>
+      <c r="AT23" s="109"/>
+      <c r="AU23" s="109"/>
+      <c r="AV23" s="110"/>
     </row>
     <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -56264,40 +57723,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -56317,132 +57742,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
@@ -56450,490 +57875,535 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="110" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="N5" s="111" t="s">
+      <c r="N5" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="111" t="s">
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="111" t="s">
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="112" t="s">
         <v>230</v>
       </c>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="111" t="s">
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="111" t="s">
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="114"/>
       <c r="AH5" s="60"/>
       <c r="AI5" s="60"/>
       <c r="AJ5" s="60"/>
       <c r="AK5" s="60"/>
       <c r="AL5" s="60"/>
       <c r="AM5" s="60"/>
-      <c r="AN5" s="111" t="s">
+      <c r="AN5" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="114"/>
     </row>
     <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="113"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="114"/>
       <c r="AH6" s="60"/>
       <c r="AI6" s="60"/>
       <c r="AJ6" s="60"/>
       <c r="AK6" s="60"/>
       <c r="AL6" s="60"/>
       <c r="AM6" s="60"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="112"/>
-      <c r="AP6" s="112"/>
-      <c r="AQ6" s="112"/>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="112"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="113"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="114"/>
     </row>
     <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="113"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="114"/>
       <c r="AH7" s="60"/>
       <c r="AI7" s="60"/>
       <c r="AJ7" s="60"/>
       <c r="AK7" s="60"/>
       <c r="AL7" s="60"/>
       <c r="AM7" s="60"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="113"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="113"/>
+      <c r="AQ7" s="113"/>
+      <c r="AR7" s="113"/>
+      <c r="AS7" s="113"/>
+      <c r="AT7" s="113"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="114"/>
     </row>
     <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="113"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="114"/>
       <c r="AH8" s="60"/>
       <c r="AI8" s="60"/>
       <c r="AJ8" s="60"/>
       <c r="AK8" s="60"/>
       <c r="AL8" s="60"/>
       <c r="AM8" s="60"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="113"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="114"/>
     </row>
     <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="113"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="114"/>
       <c r="AH9" s="60"/>
       <c r="AI9" s="60"/>
       <c r="AJ9" s="60"/>
       <c r="AK9" s="60"/>
       <c r="AL9" s="60"/>
       <c r="AM9" s="60"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="112"/>
-      <c r="AP9" s="112"/>
-      <c r="AQ9" s="112"/>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="112"/>
-      <c r="AT9" s="112"/>
-      <c r="AU9" s="112"/>
-      <c r="AV9" s="113"/>
+      <c r="AN9" s="112"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="114"/>
     </row>
     <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="113"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="114"/>
       <c r="AH10" s="60"/>
       <c r="AI10" s="60"/>
       <c r="AJ10" s="60"/>
       <c r="AK10" s="60"/>
       <c r="AL10" s="60"/>
       <c r="AM10" s="60"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="112"/>
-      <c r="AP10" s="112"/>
-      <c r="AQ10" s="112"/>
-      <c r="AR10" s="112"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="113"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="114"/>
     </row>
     <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="113"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="114"/>
       <c r="AH11" s="60"/>
       <c r="AI11" s="60"/>
       <c r="AJ11" s="60"/>
       <c r="AK11" s="60"/>
       <c r="AL11" s="60"/>
       <c r="AM11" s="60"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="112"/>
-      <c r="AQ11" s="112"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="113"/>
+      <c r="AN11" s="112"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="114"/>
     </row>
     <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
       <c r="M12" s="60"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="112"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="113"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="112"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="114"/>
       <c r="AH12" s="60"/>
       <c r="AI12" s="60"/>
       <c r="AJ12" s="60"/>
       <c r="AK12" s="60"/>
       <c r="AL12" s="60"/>
       <c r="AM12" s="60"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="112"/>
-      <c r="AP12" s="112"/>
-      <c r="AQ12" s="112"/>
-      <c r="AR12" s="112"/>
-      <c r="AS12" s="112"/>
-      <c r="AT12" s="112"/>
-      <c r="AU12" s="112"/>
-      <c r="AV12" s="113"/>
+      <c r="AN12" s="112"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="114"/>
     </row>
     <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="113"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="114"/>
       <c r="AH13" s="60"/>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="60"/>
       <c r="AK13" s="60"/>
       <c r="AL13" s="60"/>
       <c r="AM13" s="60"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="112"/>
-      <c r="AP13" s="112"/>
-      <c r="AQ13" s="112"/>
-      <c r="AR13" s="112"/>
-      <c r="AS13" s="112"/>
-      <c r="AT13" s="112"/>
-      <c r="AU13" s="112"/>
-      <c r="AV13" s="113"/>
+      <c r="AN13" s="112"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="114"/>
     </row>
     <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -56950,62 +58420,17 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -57017,139 +58442,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91435FB5-23B6-4319-B205-FB0A6A4D7936}">
   <dimension ref="A1:AV90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -57432,140 +58857,140 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="114" t="s">
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="126"/>
+      <c r="O40" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="125"/>
+      <c r="AB40" s="125"/>
+      <c r="AC40" s="125"/>
+      <c r="AD40" s="125"/>
+      <c r="AE40" s="125"/>
+      <c r="AF40" s="126"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="110"/>
     </row>
     <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E42" s="107" t="s">
+      <c r="E42" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="117" t="s">
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="119"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="122"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="122"/>
+      <c r="Y42" s="122"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="122"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="122"/>
+      <c r="AE42" s="122"/>
+      <c r="AF42" s="123"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E43" s="107" t="s">
+      <c r="E43" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="117" t="s">
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="119"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="122"/>
+      <c r="AC43" s="122"/>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="123"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
@@ -57580,60 +59005,60 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
       <c r="N44" s="52"/>
-      <c r="O44" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
-      <c r="AD44" s="108"/>
-      <c r="AE44" s="108"/>
-      <c r="AF44" s="109"/>
+      <c r="O44" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="110"/>
     </row>
     <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="108"/>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="108"/>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="108"/>
-      <c r="AF45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="110"/>
     </row>
     <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -57818,18 +59243,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="122"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="117"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -57852,16 +59277,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="120"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -57998,18 +59423,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="120" t="s">
+      <c r="F77" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="121"/>
-      <c r="O77" s="122"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="116"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
+      <c r="M77" s="116"/>
+      <c r="N77" s="116"/>
+      <c r="O77" s="117"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -58032,16 +59457,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="119"/>
+      <c r="I78" s="119"/>
+      <c r="J78" s="119"/>
+      <c r="K78" s="119"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="120"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -58151,19 +59576,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -58175,6 +59587,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58186,139 +59611,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D90DA43-AEE8-495C-9927-3EFB276C4610}">
   <dimension ref="A1:AV90"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -58601,140 +60026,140 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="114" t="s">
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="126"/>
+      <c r="O40" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="125"/>
+      <c r="AB40" s="125"/>
+      <c r="AC40" s="125"/>
+      <c r="AD40" s="125"/>
+      <c r="AE40" s="125"/>
+      <c r="AF40" s="126"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="110"/>
     </row>
     <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E42" s="107" t="s">
+      <c r="E42" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="117" t="s">
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="119"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="122"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="122"/>
+      <c r="Y42" s="122"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="122"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="122"/>
+      <c r="AE42" s="122"/>
+      <c r="AF42" s="123"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E43" s="107" t="s">
+      <c r="E43" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="117" t="s">
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="119"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="122"/>
+      <c r="AC43" s="122"/>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="123"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -58749,60 +60174,60 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="O44" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
-      <c r="AD44" s="108"/>
-      <c r="AE44" s="108"/>
-      <c r="AF44" s="109"/>
+      <c r="O44" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="110"/>
     </row>
     <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="108"/>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="108"/>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="108"/>
-      <c r="AF45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="110"/>
     </row>
     <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -58987,18 +60412,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="122"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="117"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -59021,16 +60446,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="120"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -59167,18 +60592,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="120" t="s">
+      <c r="F77" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="121"/>
-      <c r="O77" s="122"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="116"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
+      <c r="M77" s="116"/>
+      <c r="N77" s="116"/>
+      <c r="O77" s="117"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -59201,16 +60626,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="119"/>
+      <c r="I78" s="119"/>
+      <c r="J78" s="119"/>
+      <c r="K78" s="119"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="120"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -59320,13 +60745,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -59337,13 +60762,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59362,132 +60787,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="100" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="98" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="105">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -59770,140 +61195,140 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="114" t="s">
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="126"/>
+      <c r="O40" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="125"/>
+      <c r="AB40" s="125"/>
+      <c r="AC40" s="125"/>
+      <c r="AD40" s="125"/>
+      <c r="AE40" s="125"/>
+      <c r="AF40" s="126"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="110"/>
     </row>
     <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E42" s="107" t="s">
+      <c r="E42" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="117" t="s">
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="119"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="122"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="122"/>
+      <c r="Y42" s="122"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="122"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="122"/>
+      <c r="AE42" s="122"/>
+      <c r="AF42" s="123"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E43" s="107" t="s">
+      <c r="E43" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="117" t="s">
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="119"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="122"/>
+      <c r="AC43" s="122"/>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="123"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -59918,60 +61343,60 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="O44" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="108"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="108"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="108"/>
-      <c r="AC44" s="108"/>
-      <c r="AD44" s="108"/>
-      <c r="AE44" s="108"/>
-      <c r="AF44" s="109"/>
+      <c r="O44" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="110"/>
     </row>
     <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="108"/>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="108"/>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="108"/>
-      <c r="AF45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="110"/>
     </row>
     <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -60156,18 +61581,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="122"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="117"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -60190,16 +61615,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="120"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -60336,18 +61761,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="120" t="s">
+      <c r="F77" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="121"/>
-      <c r="O77" s="122"/>
+      <c r="G77" s="116"/>
+      <c r="H77" s="116"/>
+      <c r="I77" s="116"/>
+      <c r="J77" s="116"/>
+      <c r="K77" s="116"/>
+      <c r="L77" s="116"/>
+      <c r="M77" s="116"/>
+      <c r="N77" s="116"/>
+      <c r="O77" s="117"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -60370,16 +61795,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="119"/>
+      <c r="H78" s="119"/>
+      <c r="I78" s="119"/>
+      <c r="J78" s="119"/>
+      <c r="K78" s="119"/>
+      <c r="L78" s="119"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="119"/>
+      <c r="O78" s="120"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -60489,13 +61914,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -60506,13 +61931,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_国家作成処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD070_国家作成処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644DFBD-7562-400F-9870-2380452ACD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C2601-9590-4498-9D16-B274FBC3D799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="13320" windowHeight="8916" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4556,6 +4557,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4689,18 +4702,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15133,20 +15134,20 @@
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
-      <c r="AX3" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="83" t="s">
+      <c r="AX3" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="86"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="83"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="87"/>
+      <c r="BG3" s="87"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
@@ -15197,20 +15198,20 @@
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
-      <c r="AX4" s="82" t="s">
+      <c r="AX4" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="83" t="s">
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="83"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="87"/>
+      <c r="BG4" s="87"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
@@ -15998,132 +15999,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -16835,132 +16836,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -17567,820 +17568,820 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="106" t="str">
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="110" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106" t="str">
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="102" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="85"/>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="88"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A4" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="93" t="s">
+      <c r="A4" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="90" t="s">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="91"/>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="90" t="s">
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="91"/>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="92"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="96"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A5" s="97">
+      <c r="A5" s="101">
         <v>43933</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="96" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="86" t="s">
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="88"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91"/>
+      <c r="AV5" s="92"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="87"/>
-      <c r="AV6" s="88"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="91"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="92"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="88"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="92"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="88"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="92"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="88"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="92"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="88"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="91"/>
+      <c r="AQ10" s="91"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="91"/>
+      <c r="AT10" s="91"/>
+      <c r="AU10" s="91"/>
+      <c r="AV10" s="92"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="88"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="91"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="91"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="92"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="88"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="88"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="91"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="92"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="88"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="92"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="88"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="92"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="88"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="92"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="86"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="88"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -18462,8 +18463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42DD12-9A39-43D1-AFF1-562F3E9C8011}">
   <dimension ref="A1:AV250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P250" sqref="P250"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T240" sqref="T240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18473,132 +18474,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
@@ -24166,7 +24167,7 @@
       <c r="P228" t="s">
         <v>566</v>
       </c>
-      <c r="W228" s="127" t="s">
+      <c r="W228" s="82" t="s">
         <v>569</v>
       </c>
     </row>
@@ -24199,25 +24200,25 @@
       </c>
     </row>
     <row r="231" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C231" s="130" t="s">
+      <c r="C231" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="D231" s="130"/>
-      <c r="E231" s="130"/>
-      <c r="F231" s="130"/>
-      <c r="G231" s="130"/>
-      <c r="H231" s="130" t="s">
+      <c r="D231" s="85"/>
+      <c r="E231" s="85"/>
+      <c r="F231" s="85"/>
+      <c r="G231" s="85"/>
+      <c r="H231" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="I231" s="130"/>
-      <c r="J231" s="130"/>
-      <c r="K231" s="130"/>
-      <c r="L231" s="130" t="s">
+      <c r="I231" s="85"/>
+      <c r="J231" s="85"/>
+      <c r="K231" s="85"/>
+      <c r="L231" s="85" t="s">
         <v>561</v>
       </c>
-      <c r="M231" s="130"/>
-      <c r="N231" s="130"/>
-      <c r="O231" s="130"/>
+      <c r="M231" s="85"/>
+      <c r="N231" s="85"/>
+      <c r="O231" s="85"/>
       <c r="P231" t="s">
         <v>568</v>
       </c>
@@ -24226,101 +24227,101 @@
       </c>
     </row>
     <row r="232" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C232" s="130" t="s">
+      <c r="C232" s="85" t="s">
         <v>248</v>
       </c>
-      <c r="D232" s="130"/>
-      <c r="E232" s="130"/>
-      <c r="F232" s="130"/>
-      <c r="G232" s="130"/>
-      <c r="H232" s="130" t="s">
+      <c r="D232" s="85"/>
+      <c r="E232" s="85"/>
+      <c r="F232" s="85"/>
+      <c r="G232" s="85"/>
+      <c r="H232" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="I232" s="130"/>
-      <c r="J232" s="130"/>
-      <c r="K232" s="130"/>
-      <c r="L232" s="130"/>
-      <c r="M232" s="130"/>
-      <c r="N232" s="130"/>
-      <c r="O232" s="130"/>
+      <c r="I232" s="85"/>
+      <c r="J232" s="85"/>
+      <c r="K232" s="85"/>
+      <c r="L232" s="85"/>
+      <c r="M232" s="85"/>
+      <c r="N232" s="85"/>
+      <c r="O232" s="85"/>
       <c r="AB232" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="233" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C233" s="130" t="s">
+      <c r="C233" s="85" t="s">
         <v>424</v>
       </c>
-      <c r="D233" s="130"/>
-      <c r="E233" s="130"/>
-      <c r="F233" s="130"/>
-      <c r="G233" s="130"/>
-      <c r="H233" s="130" t="s">
+      <c r="D233" s="85"/>
+      <c r="E233" s="85"/>
+      <c r="F233" s="85"/>
+      <c r="G233" s="85"/>
+      <c r="H233" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="I233" s="130"/>
-      <c r="J233" s="130"/>
-      <c r="K233" s="130"/>
-      <c r="L233" s="130"/>
-      <c r="M233" s="130"/>
-      <c r="N233" s="130"/>
-      <c r="O233" s="130"/>
+      <c r="I233" s="85"/>
+      <c r="J233" s="85"/>
+      <c r="K233" s="85"/>
+      <c r="L233" s="85"/>
+      <c r="M233" s="85"/>
+      <c r="N233" s="85"/>
+      <c r="O233" s="85"/>
       <c r="AB233" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="234" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C234" s="130" t="s">
+      <c r="C234" s="85" t="s">
         <v>425</v>
       </c>
-      <c r="D234" s="130"/>
-      <c r="E234" s="130"/>
-      <c r="F234" s="130"/>
-      <c r="G234" s="130"/>
-      <c r="H234" s="130" t="s">
+      <c r="D234" s="85"/>
+      <c r="E234" s="85"/>
+      <c r="F234" s="85"/>
+      <c r="G234" s="85"/>
+      <c r="H234" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="I234" s="130"/>
-      <c r="J234" s="130"/>
-      <c r="K234" s="130"/>
-      <c r="L234" s="130" t="s">
+      <c r="I234" s="85"/>
+      <c r="J234" s="85"/>
+      <c r="K234" s="85"/>
+      <c r="L234" s="85" t="s">
         <v>563</v>
       </c>
-      <c r="M234" s="130"/>
-      <c r="N234" s="130"/>
-      <c r="O234" s="130"/>
+      <c r="M234" s="85"/>
+      <c r="N234" s="85"/>
+      <c r="O234" s="85"/>
     </row>
     <row r="235" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C235" s="130" t="s">
+      <c r="C235" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="D235" s="130"/>
-      <c r="E235" s="130"/>
-      <c r="F235" s="130"/>
-      <c r="G235" s="130"/>
-      <c r="H235" s="130" t="s">
+      <c r="D235" s="85"/>
+      <c r="E235" s="85"/>
+      <c r="F235" s="85"/>
+      <c r="G235" s="85"/>
+      <c r="H235" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="I235" s="130"/>
-      <c r="J235" s="130"/>
-      <c r="K235" s="130"/>
-      <c r="L235" s="130" t="s">
+      <c r="I235" s="85"/>
+      <c r="J235" s="85"/>
+      <c r="K235" s="85"/>
+      <c r="L235" s="85" t="s">
         <v>563</v>
       </c>
-      <c r="M235" s="130"/>
-      <c r="N235" s="130"/>
-      <c r="O235" s="130"/>
+      <c r="M235" s="85"/>
+      <c r="N235" s="85"/>
+      <c r="O235" s="85"/>
       <c r="P235" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="237" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C237" s="128" t="s">
+      <c r="C237" s="83" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="238" spans="3:28" x14ac:dyDescent="0.45">
-      <c r="C238" s="129" t="s">
+      <c r="C238" s="84" t="s">
         <v>574</v>
       </c>
     </row>
@@ -56723,132 +56724,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
@@ -56856,112 +56857,112 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="108" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="109"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="109"/>
-      <c r="AR5" s="109"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="110"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="114"/>
     </row>
     <row r="6" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="108" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109"/>
-      <c r="AM6" s="109"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="109"/>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="109"/>
-      <c r="AR6" s="109"/>
-      <c r="AS6" s="109"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="109"/>
-      <c r="AV6" s="110"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="114"/>
     </row>
     <row r="7" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
@@ -56970,490 +56971,490 @@
       </c>
     </row>
     <row r="9" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="111" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="107" t="s">
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="107"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
     </row>
     <row r="10" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="108" t="s">
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AF10" s="109"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="109"/>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="109"/>
-      <c r="AQ10" s="109"/>
-      <c r="AR10" s="109"/>
-      <c r="AS10" s="109"/>
-      <c r="AT10" s="109"/>
-      <c r="AU10" s="109"/>
-      <c r="AV10" s="110"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="114"/>
     </row>
     <row r="11" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="108" t="s">
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="109"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="109"/>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="109"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="109"/>
-      <c r="AR11" s="109"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="109"/>
-      <c r="AV11" s="110"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="114"/>
     </row>
     <row r="12" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="108" t="s">
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
-      <c r="AV12" s="110"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="114"/>
     </row>
     <row r="13" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107" t="s">
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="108" t="s">
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
-      <c r="AQ13" s="109"/>
-      <c r="AR13" s="109"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
-      <c r="AV13" s="110"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="114"/>
     </row>
     <row r="14" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="108" t="s">
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="109"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="109"/>
-      <c r="AV14" s="110"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="114"/>
     </row>
     <row r="15" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="109"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="109"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
-      <c r="AV15" s="110"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="114"/>
     </row>
     <row r="16" spans="1:48" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="109"/>
-      <c r="AR16" s="109"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="109"/>
-      <c r="AV16" s="110"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="114"/>
     </row>
     <row r="17" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="107"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="109"/>
-      <c r="AM17" s="109"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="109"/>
-      <c r="AQ17" s="109"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="109"/>
-      <c r="AV17" s="110"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="114"/>
     </row>
     <row r="18" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
@@ -57462,212 +57463,212 @@
       </c>
     </row>
     <row r="20" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="108" t="s">
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="109"/>
-      <c r="AM20" s="109"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
-      <c r="AQ20" s="109"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
-      <c r="AV20" s="110"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="114"/>
     </row>
     <row r="21" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="108" t="s">
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="109"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="109"/>
-      <c r="AK21" s="109"/>
-      <c r="AL21" s="109"/>
-      <c r="AM21" s="109"/>
-      <c r="AN21" s="109"/>
-      <c r="AO21" s="109"/>
-      <c r="AP21" s="109"/>
-      <c r="AQ21" s="109"/>
-      <c r="AR21" s="109"/>
-      <c r="AS21" s="109"/>
-      <c r="AT21" s="109"/>
-      <c r="AU21" s="109"/>
-      <c r="AV21" s="110"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="114"/>
     </row>
     <row r="22" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="109"/>
-      <c r="AK22" s="109"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="109"/>
-      <c r="AN22" s="109"/>
-      <c r="AO22" s="109"/>
-      <c r="AP22" s="109"/>
-      <c r="AQ22" s="109"/>
-      <c r="AR22" s="109"/>
-      <c r="AS22" s="109"/>
-      <c r="AT22" s="109"/>
-      <c r="AU22" s="109"/>
-      <c r="AV22" s="110"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="114"/>
     </row>
     <row r="23" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="108"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="109"/>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="109"/>
-      <c r="AH23" s="109"/>
-      <c r="AI23" s="109"/>
-      <c r="AJ23" s="109"/>
-      <c r="AK23" s="109"/>
-      <c r="AL23" s="109"/>
-      <c r="AM23" s="109"/>
-      <c r="AN23" s="109"/>
-      <c r="AO23" s="109"/>
-      <c r="AP23" s="109"/>
-      <c r="AQ23" s="109"/>
-      <c r="AR23" s="109"/>
-      <c r="AS23" s="109"/>
-      <c r="AT23" s="109"/>
-      <c r="AU23" s="109"/>
-      <c r="AV23" s="110"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="114"/>
     </row>
     <row r="24" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -57742,132 +57743,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
@@ -57875,474 +57876,474 @@
       </c>
     </row>
     <row r="5" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="111" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
       <c r="M5" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="N5" s="112" t="s">
+      <c r="N5" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="112" t="s">
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="112" t="s">
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="112" t="s">
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="112" t="s">
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="114"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="118"/>
       <c r="AH5" s="60"/>
       <c r="AI5" s="60"/>
       <c r="AJ5" s="60"/>
       <c r="AK5" s="60"/>
       <c r="AL5" s="60"/>
       <c r="AM5" s="60"/>
-      <c r="AN5" s="112" t="s">
+      <c r="AN5" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="114"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="118"/>
     </row>
     <row r="6" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="114"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="114"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="118"/>
       <c r="AH6" s="60"/>
       <c r="AI6" s="60"/>
       <c r="AJ6" s="60"/>
       <c r="AK6" s="60"/>
       <c r="AL6" s="60"/>
       <c r="AM6" s="60"/>
-      <c r="AN6" s="112"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="114"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="117"/>
+      <c r="AP6" s="117"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="117"/>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="117"/>
+      <c r="AV6" s="118"/>
     </row>
     <row r="7" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="114"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="117"/>
+      <c r="AG7" s="118"/>
       <c r="AH7" s="60"/>
       <c r="AI7" s="60"/>
       <c r="AJ7" s="60"/>
       <c r="AK7" s="60"/>
       <c r="AL7" s="60"/>
       <c r="AM7" s="60"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="113"/>
-      <c r="AP7" s="113"/>
-      <c r="AQ7" s="113"/>
-      <c r="AR7" s="113"/>
-      <c r="AS7" s="113"/>
-      <c r="AT7" s="113"/>
-      <c r="AU7" s="113"/>
-      <c r="AV7" s="114"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="117"/>
+      <c r="AR7" s="117"/>
+      <c r="AS7" s="117"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="117"/>
+      <c r="AV7" s="118"/>
     </row>
     <row r="8" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="114"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="118"/>
       <c r="AH8" s="60"/>
       <c r="AI8" s="60"/>
       <c r="AJ8" s="60"/>
       <c r="AK8" s="60"/>
       <c r="AL8" s="60"/>
       <c r="AM8" s="60"/>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="113"/>
-      <c r="AR8" s="113"/>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="113"/>
-      <c r="AU8" s="113"/>
-      <c r="AV8" s="114"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="117"/>
+      <c r="AQ8" s="117"/>
+      <c r="AR8" s="117"/>
+      <c r="AS8" s="117"/>
+      <c r="AT8" s="117"/>
+      <c r="AU8" s="117"/>
+      <c r="AV8" s="118"/>
     </row>
     <row r="9" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="114"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="118"/>
       <c r="AH9" s="60"/>
       <c r="AI9" s="60"/>
       <c r="AJ9" s="60"/>
       <c r="AK9" s="60"/>
       <c r="AL9" s="60"/>
       <c r="AM9" s="60"/>
-      <c r="AN9" s="112"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-      <c r="AQ9" s="113"/>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113"/>
-      <c r="AU9" s="113"/>
-      <c r="AV9" s="114"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="117"/>
+      <c r="AT9" s="117"/>
+      <c r="AU9" s="117"/>
+      <c r="AV9" s="118"/>
     </row>
     <row r="10" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="114"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="117"/>
+      <c r="AG10" s="118"/>
       <c r="AH10" s="60"/>
       <c r="AI10" s="60"/>
       <c r="AJ10" s="60"/>
       <c r="AK10" s="60"/>
       <c r="AL10" s="60"/>
       <c r="AM10" s="60"/>
-      <c r="AN10" s="112"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="114"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="117"/>
+      <c r="AT10" s="117"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="118"/>
     </row>
     <row r="11" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="114"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="118"/>
       <c r="AH11" s="60"/>
       <c r="AI11" s="60"/>
       <c r="AJ11" s="60"/>
       <c r="AK11" s="60"/>
       <c r="AL11" s="60"/>
       <c r="AM11" s="60"/>
-      <c r="AN11" s="112"/>
-      <c r="AO11" s="113"/>
-      <c r="AP11" s="113"/>
-      <c r="AQ11" s="113"/>
-      <c r="AR11" s="113"/>
-      <c r="AS11" s="113"/>
-      <c r="AT11" s="113"/>
-      <c r="AU11" s="113"/>
-      <c r="AV11" s="114"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="117"/>
+      <c r="AS11" s="117"/>
+      <c r="AT11" s="117"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="118"/>
     </row>
     <row r="12" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
       <c r="M12" s="60"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="114"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="116"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="118"/>
       <c r="AH12" s="60"/>
       <c r="AI12" s="60"/>
       <c r="AJ12" s="60"/>
       <c r="AK12" s="60"/>
       <c r="AL12" s="60"/>
       <c r="AM12" s="60"/>
-      <c r="AN12" s="112"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="114"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="117"/>
+      <c r="AV12" s="118"/>
     </row>
     <row r="13" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="112"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="114"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="118"/>
       <c r="AH13" s="60"/>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="60"/>
       <c r="AK13" s="60"/>
       <c r="AL13" s="60"/>
       <c r="AM13" s="60"/>
-      <c r="AN13" s="112"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="114"/>
+      <c r="AN13" s="116"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="117"/>
+      <c r="AS13" s="117"/>
+      <c r="AT13" s="117"/>
+      <c r="AU13" s="117"/>
+      <c r="AV13" s="118"/>
     </row>
     <row r="14" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -58449,132 +58450,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -58857,140 +58858,140 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="124" t="s">
+      <c r="E40" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="126"/>
-      <c r="O40" s="124" t="s">
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="125"/>
-      <c r="U40" s="125"/>
-      <c r="V40" s="125"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="125"/>
-      <c r="AD40" s="125"/>
-      <c r="AE40" s="125"/>
-      <c r="AF40" s="126"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="129"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="129"/>
+      <c r="AB40" s="129"/>
+      <c r="AC40" s="129"/>
+      <c r="AD40" s="129"/>
+      <c r="AE40" s="129"/>
+      <c r="AF40" s="130"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="109"/>
-      <c r="W41" s="109"/>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="109"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="110"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="114"/>
     </row>
     <row r="42" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="121" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="122"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="123"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="126"/>
+      <c r="AB42" s="126"/>
+      <c r="AC42" s="126"/>
+      <c r="AD42" s="126"/>
+      <c r="AE42" s="126"/>
+      <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="121" t="s">
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="123"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="126"/>
+      <c r="W43" s="126"/>
+      <c r="X43" s="126"/>
+      <c r="Y43" s="126"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="126"/>
+      <c r="AB43" s="126"/>
+      <c r="AC43" s="126"/>
+      <c r="AD43" s="126"/>
+      <c r="AE43" s="126"/>
+      <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
@@ -59005,60 +59006,60 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
       <c r="N44" s="52"/>
-      <c r="O44" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="109"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="110"/>
+      <c r="O44" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="114"/>
     </row>
     <row r="45" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E45" s="108" t="s">
+      <c r="E45" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="109"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="109"/>
-      <c r="AA45" s="109"/>
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="110"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="114"/>
     </row>
     <row r="46" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="4:32" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -59243,18 +59244,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="121"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -59277,16 +59278,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="123"/>
+      <c r="M69" s="123"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="124"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -59423,18 +59424,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
+      <c r="G77" s="120"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="121"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -59457,16 +59458,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+      <c r="O78" s="124"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -59618,132 +59619,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -60026,140 +60027,140 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="124" t="s">
+      <c r="E40" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="126"/>
-      <c r="O40" s="124" t="s">
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="125"/>
-      <c r="U40" s="125"/>
-      <c r="V40" s="125"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="125"/>
-      <c r="AD40" s="125"/>
-      <c r="AE40" s="125"/>
-      <c r="AF40" s="126"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="129"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="129"/>
+      <c r="AB40" s="129"/>
+      <c r="AC40" s="129"/>
+      <c r="AD40" s="129"/>
+      <c r="AE40" s="129"/>
+      <c r="AF40" s="130"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="109"/>
-      <c r="W41" s="109"/>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="109"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="110"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="114"/>
     </row>
     <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="121" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="122"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="123"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="126"/>
+      <c r="AB42" s="126"/>
+      <c r="AC42" s="126"/>
+      <c r="AD42" s="126"/>
+      <c r="AE42" s="126"/>
+      <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="121" t="s">
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="123"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="126"/>
+      <c r="W43" s="126"/>
+      <c r="X43" s="126"/>
+      <c r="Y43" s="126"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="126"/>
+      <c r="AB43" s="126"/>
+      <c r="AC43" s="126"/>
+      <c r="AD43" s="126"/>
+      <c r="AE43" s="126"/>
+      <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -60174,60 +60175,60 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="O44" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="109"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="110"/>
+      <c r="O44" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="114"/>
     </row>
     <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E45" s="108" t="s">
+      <c r="E45" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="109"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="109"/>
-      <c r="AA45" s="109"/>
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="110"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="114"/>
     </row>
     <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -60412,18 +60413,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="121"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -60446,16 +60447,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="123"/>
+      <c r="M69" s="123"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="124"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -60592,18 +60593,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
+      <c r="G77" s="120"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="121"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -60626,16 +60627,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+      <c r="O78" s="124"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -60787,132 +60788,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="104" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104" t="s">
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="98" t="str">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="102" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="105">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="109">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98" t="str">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98" t="str">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98" t="str">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -61195,140 +61196,140 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="124" t="s">
+      <c r="E40" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="126"/>
-      <c r="O40" s="124" t="s">
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="125"/>
-      <c r="U40" s="125"/>
-      <c r="V40" s="125"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="125"/>
-      <c r="AD40" s="125"/>
-      <c r="AE40" s="125"/>
-      <c r="AF40" s="126"/>
+      <c r="P40" s="129"/>
+      <c r="Q40" s="129"/>
+      <c r="R40" s="129"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="129"/>
+      <c r="U40" s="129"/>
+      <c r="V40" s="129"/>
+      <c r="W40" s="129"/>
+      <c r="X40" s="129"/>
+      <c r="Y40" s="129"/>
+      <c r="Z40" s="129"/>
+      <c r="AA40" s="129"/>
+      <c r="AB40" s="129"/>
+      <c r="AC40" s="129"/>
+      <c r="AD40" s="129"/>
+      <c r="AE40" s="129"/>
+      <c r="AF40" s="130"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="109"/>
-      <c r="W41" s="109"/>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="109"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="110"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="114"/>
     </row>
     <row r="42" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="121" t="s">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="122"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="123"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="126"/>
+      <c r="U42" s="126"/>
+      <c r="V42" s="126"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
+      <c r="Y42" s="126"/>
+      <c r="Z42" s="126"/>
+      <c r="AA42" s="126"/>
+      <c r="AB42" s="126"/>
+      <c r="AC42" s="126"/>
+      <c r="AD42" s="126"/>
+      <c r="AE42" s="126"/>
+      <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="121" t="s">
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="123"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
+      <c r="S43" s="126"/>
+      <c r="T43" s="126"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="126"/>
+      <c r="W43" s="126"/>
+      <c r="X43" s="126"/>
+      <c r="Y43" s="126"/>
+      <c r="Z43" s="126"/>
+      <c r="AA43" s="126"/>
+      <c r="AB43" s="126"/>
+      <c r="AC43" s="126"/>
+      <c r="AD43" s="126"/>
+      <c r="AE43" s="126"/>
+      <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -61343,60 +61344,60 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="59"/>
-      <c r="O44" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="109"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="110"/>
+      <c r="O44" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="113"/>
+      <c r="R44" s="113"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="113"/>
+      <c r="W44" s="113"/>
+      <c r="X44" s="113"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="113"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="113"/>
+      <c r="AC44" s="113"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="113"/>
+      <c r="AF44" s="114"/>
     </row>
     <row r="45" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E45" s="108" t="s">
+      <c r="E45" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="109"/>
-      <c r="W45" s="109"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="109"/>
-      <c r="AA45" s="109"/>
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="110"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="113"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="113"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="113"/>
+      <c r="AA45" s="113"/>
+      <c r="AB45" s="113"/>
+      <c r="AC45" s="113"/>
+      <c r="AD45" s="113"/>
+      <c r="AE45" s="113"/>
+      <c r="AF45" s="114"/>
     </row>
     <row r="46" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -61581,18 +61582,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="121"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -61615,16 +61616,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="118"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="123"/>
+      <c r="M69" s="123"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="124"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -61761,18 +61762,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="116"/>
-      <c r="K77" s="116"/>
-      <c r="L77" s="116"/>
-      <c r="M77" s="116"/>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
+      <c r="G77" s="120"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="120"/>
+      <c r="N77" s="120"/>
+      <c r="O77" s="121"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -61795,16 +61796,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="118"/>
-      <c r="G78" s="119"/>
-      <c r="H78" s="119"/>
-      <c r="I78" s="119"/>
-      <c r="J78" s="119"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="119"/>
-      <c r="N78" s="119"/>
-      <c r="O78" s="120"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+      <c r="O78" s="124"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
